--- a/100runs/run027/NotionalETEOutput027.xlsx
+++ b/100runs/run027/NotionalETEOutput027.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
   <si>
     <t>uniqueid</t>
   </si>
@@ -52,10 +52,28 @@
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_487.MISSILE_BRAVER_487</t>
+    <t>Missile_HELLMASKER_State_Update</t>
+  </si>
+  <si>
+    <t>Missile_HIGHWIND_State_Update</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_174.MISSILE_BRAVER_174</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_495.MISSILE_HELLMASKER_495</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND_2.MISSILE_HIGHWIND_2</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
   </si>
 </sst>
 </file>
@@ -413,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,31 +480,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>222.3118548171313</v>
+        <v>1116580.065179256</v>
       </c>
       <c r="G2">
-        <v>-91.02345115137824</v>
+        <v>4841128.171929758</v>
       </c>
       <c r="H2">
-        <v>1087.007164445365</v>
+        <v>3985224.911189735</v>
       </c>
       <c r="I2">
-        <v>-1045.087297784337</v>
+        <v>1114859.754265043</v>
       </c>
       <c r="J2">
-        <v>2288.855220722618</v>
+        <v>4843215.220738976</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984365.304422839</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +515,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>222.3118548171313</v>
+        <v>1116580.065179256</v>
       </c>
       <c r="G3">
-        <v>-91.02345115137824</v>
+        <v>4841128.171929758</v>
       </c>
       <c r="H3">
-        <v>1087.007164445365</v>
+        <v>3985224.911189735</v>
       </c>
       <c r="I3">
-        <v>-1024.454491733127</v>
+        <v>1114889.368218922</v>
       </c>
       <c r="J3">
-        <v>2233.176999858218</v>
+        <v>4843166.569231645</v>
       </c>
       <c r="K3">
-        <v>220.8079993547323</v>
+        <v>3984669.100032303</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +550,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>222.3118548171313</v>
+        <v>1116580.065179256</v>
       </c>
       <c r="G4">
-        <v>-91.02345115137824</v>
+        <v>4841128.171929758</v>
       </c>
       <c r="H4">
-        <v>1087.007164445365</v>
+        <v>3985224.911189735</v>
       </c>
       <c r="I4">
-        <v>-1003.31362181474</v>
+        <v>1114919.711389171</v>
       </c>
       <c r="J4">
-        <v>2177.498778993818</v>
+        <v>4843117.917724312</v>
       </c>
       <c r="K4">
-        <v>430.6054997141046</v>
+        <v>3984957.747000131</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +585,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>222.3118548171313</v>
+        <v>1116580.065179256</v>
       </c>
       <c r="G5">
-        <v>-91.02345115137824</v>
+        <v>4841128.171929758</v>
       </c>
       <c r="H5">
-        <v>1087.007164445365</v>
+        <v>3985224.911189735</v>
       </c>
       <c r="I5">
-        <v>-981.652177423856</v>
+        <v>1114950.801732072</v>
       </c>
       <c r="J5">
-        <v>2121.820558129418</v>
+        <v>4843069.26621698</v>
       </c>
       <c r="K5">
-        <v>629.3925010781184</v>
+        <v>3985231.245326322</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +620,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>222.3118548171313</v>
+        <v>1116580.065179256</v>
       </c>
       <c r="G6">
-        <v>-91.02345115137824</v>
+        <v>4841128.171929758</v>
       </c>
       <c r="H6">
-        <v>1087.007164445365</v>
+        <v>3985224.911189735</v>
       </c>
       <c r="I6">
-        <v>-959.4573398930102</v>
+        <v>1114982.657646065</v>
       </c>
       <c r="J6">
-        <v>2066.142337265018</v>
+        <v>4843020.614709649</v>
       </c>
       <c r="K6">
-        <v>817.1690034467724</v>
+        <v>3985489.595010875</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +655,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>222.3118548171313</v>
+        <v>1116580.065179256</v>
       </c>
       <c r="G7">
-        <v>-91.02345115137824</v>
+        <v>4841128.171929758</v>
       </c>
       <c r="H7">
-        <v>1087.007164445365</v>
+        <v>3985224.911189735</v>
       </c>
       <c r="I7">
-        <v>-936.7159749068431</v>
+        <v>1115015.297982633</v>
       </c>
       <c r="J7">
-        <v>2010.464116400618</v>
+        <v>4842971.963202317</v>
       </c>
       <c r="K7">
-        <v>993.9350068200681</v>
+        <v>3985732.796053792</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -672,31 +690,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>222.3118548171313</v>
+        <v>1116580.065179256</v>
       </c>
       <c r="G8">
-        <v>-91.02345115137824</v>
+        <v>4841128.171929758</v>
       </c>
       <c r="H8">
-        <v>1087.007164445365</v>
+        <v>3985224.911189735</v>
       </c>
       <c r="I8">
-        <v>-913.414624729564</v>
+        <v>1115048.74205746</v>
       </c>
       <c r="J8">
-        <v>1954.785895536218</v>
+        <v>4842923.311694985</v>
       </c>
       <c r="K8">
-        <v>1159.690511198004</v>
+        <v>3985960.848455071</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,31 +725,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>222.3118548171313</v>
+        <v>1116580.065179256</v>
       </c>
       <c r="G9">
-        <v>-91.02345115137824</v>
+        <v>4841128.171929758</v>
       </c>
       <c r="H9">
-        <v>1087.007164445365</v>
+        <v>3985224.911189735</v>
       </c>
       <c r="I9">
-        <v>-889.5395002410186</v>
+        <v>1115083.009661862</v>
       </c>
       <c r="J9">
-        <v>1899.107674671818</v>
+        <v>4842874.660187653</v>
       </c>
       <c r="K9">
-        <v>1314.435516580581</v>
+        <v>3986173.752214714</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -742,31 +760,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>222.3118548171313</v>
+        <v>1116580.065179256</v>
       </c>
       <c r="G10">
-        <v>-75.99291722469773</v>
+        <v>4841144.684761277</v>
       </c>
       <c r="H10">
-        <v>1087.007164445365</v>
+        <v>3985224.911189735</v>
       </c>
       <c r="I10">
-        <v>-865.0764727766546</v>
+        <v>1115118.121074496</v>
       </c>
       <c r="J10">
-        <v>1843.429453807418</v>
+        <v>4842826.008680322</v>
       </c>
       <c r="K10">
-        <v>1458.170022967799</v>
+        <v>3986371.50733272</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,31 +795,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>172.5399334517938</v>
+        <v>1116531.384547415</v>
       </c>
       <c r="G11">
-        <v>-60.96238329801724</v>
+        <v>4841161.197592797</v>
       </c>
       <c r="H11">
-        <v>1339.185512064808</v>
+        <v>3985424.165425658</v>
       </c>
       <c r="I11">
-        <v>-840.0110657665529</v>
+        <v>1115154.097073365</v>
       </c>
       <c r="J11">
-        <v>1787.751232943018</v>
+        <v>4842777.35717299</v>
       </c>
       <c r="K11">
-        <v>1590.894030359657</v>
+        <v>3986554.113809089</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>143.3014264787618</v>
+        <v>1116502.787118292</v>
       </c>
       <c r="G12">
-        <v>-45.93184937133675</v>
+        <v>4841177.710424316</v>
       </c>
       <c r="H12">
-        <v>1489.395832797265</v>
+        <v>3985542.851438821</v>
       </c>
       <c r="I12">
-        <v>-814.3284461685793</v>
+        <v>1115190.958948109</v>
       </c>
       <c r="J12">
-        <v>1732.073012078618</v>
+        <v>4842728.705665658</v>
       </c>
       <c r="K12">
-        <v>1712.607538756157</v>
+        <v>3986721.57164382</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,31 +865,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>124.8439358319835</v>
+        <v>1116484.734323017</v>
       </c>
       <c r="G13">
-        <v>-30.90131544465625</v>
+        <v>4841194.223255835</v>
       </c>
       <c r="H13">
-        <v>1596.74099669729</v>
+        <v>3985627.668310748</v>
       </c>
       <c r="I13">
-        <v>-788.013415690582</v>
+        <v>1115228.728512606</v>
       </c>
       <c r="J13">
-        <v>1676.394791214218</v>
+        <v>4842680.054158326</v>
       </c>
       <c r="K13">
-        <v>1823.310548157297</v>
+        <v>3986873.880836915</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -882,31 +900,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>111.9717567782734</v>
+        <v>1116472.144376873</v>
       </c>
       <c r="G14">
-        <v>-15.87078151797575</v>
+        <v>4841210.736087355</v>
       </c>
       <c r="H14">
-        <v>1680.330618316025</v>
+        <v>3985693.715163477</v>
       </c>
       <c r="I14">
-        <v>-761.0504017964483</v>
+        <v>1115267.428117881</v>
       </c>
       <c r="J14">
-        <v>1620.716570349818</v>
+        <v>4842631.402650994</v>
       </c>
       <c r="K14">
-        <v>1923.003058563078</v>
+        <v>3987011.041388373</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -917,31 +935,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>102.3687257264249</v>
+        <v>1116462.751900023</v>
       </c>
       <c r="G15">
-        <v>-0.8402475912952584</v>
+        <v>4841227.248918874</v>
       </c>
       <c r="H15">
-        <v>1748.797002223832</v>
+        <v>3985747.812658924</v>
       </c>
       <c r="I15">
-        <v>-733.4234484906898</v>
+        <v>1115307.080665333</v>
       </c>
       <c r="J15">
-        <v>1565.038349485418</v>
+        <v>4842582.751143663</v>
       </c>
       <c r="K15">
-        <v>2011.6850699735</v>
+        <v>3987133.053298193</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -952,31 +970,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>94.86049646740864</v>
+        <v>1116455.408294747</v>
       </c>
       <c r="G16">
-        <v>14.19028633538524</v>
+        <v>4841243.761750393</v>
       </c>
       <c r="H16">
-        <v>1806.783031589951</v>
+        <v>3985793.62928864</v>
       </c>
       <c r="I16">
-        <v>-705.1162068761078</v>
+        <v>1115347.709620287</v>
       </c>
       <c r="J16">
-        <v>1509.360128621018</v>
+        <v>4842534.09963633</v>
       </c>
       <c r="K16">
-        <v>2089.356582388563</v>
+        <v>3987239.916566378</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -987,31 +1005,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>88.78579230476613</v>
+        <v>1116449.466783373</v>
       </c>
       <c r="G17">
-        <v>29.22082026206575</v>
+        <v>4841260.274581913</v>
       </c>
       <c r="H17">
-        <v>1857.075351235237</v>
+        <v>3985833.366870468</v>
       </c>
       <c r="I17">
-        <v>-676.1119254789513</v>
+        <v>1115389.339025878</v>
       </c>
       <c r="J17">
-        <v>1453.681907756618</v>
+        <v>4842485.448128999</v>
       </c>
       <c r="K17">
-        <v>2156.017595808266</v>
+        <v>3987331.631192924</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1022,31 +1040,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.74162331141981</v>
+        <v>1116444.533211854</v>
       </c>
       <c r="G18">
-        <v>44.25135418874623</v>
+        <v>4841276.787413432</v>
       </c>
       <c r="H18">
-        <v>1901.478492870991</v>
+        <v>3985868.451223041</v>
       </c>
       <c r="I18">
-        <v>-646.3934403358397</v>
+        <v>1115431.993517284</v>
       </c>
       <c r="J18">
-        <v>1398.003686892218</v>
+        <v>4842436.796621667</v>
       </c>
       <c r="K18">
-        <v>2211.668110232611</v>
+        <v>3987408.197177834</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1057,31 +1075,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.46706961611912</v>
+        <v>1116440.352381196</v>
       </c>
       <c r="G19">
-        <v>59.28188811542675</v>
+        <v>4841293.300244951</v>
       </c>
       <c r="H19">
-        <v>1941.228239829395</v>
+        <v>3985899.858778579</v>
       </c>
       <c r="I19">
-        <v>-615.9431648365838</v>
+        <v>1115475.698336299</v>
       </c>
       <c r="J19">
-        <v>1342.325466027818</v>
+        <v>4842388.145114336</v>
       </c>
       <c r="K19">
-        <v>2256.308125661596</v>
+        <v>3987469.614521107</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1092,31 +1110,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>75.78495863464184</v>
+        <v>1116436.751003468</v>
       </c>
       <c r="G20">
-        <v>74.31242204210724</v>
+        <v>4841309.81307647</v>
       </c>
       <c r="H20">
-        <v>1977.208073981674</v>
+        <v>3985928.287604568</v>
       </c>
       <c r="I20">
-        <v>-584.7430793168984</v>
+        <v>1115520.479346275</v>
       </c>
       <c r="J20">
-        <v>1286.647245163418</v>
+        <v>4842339.493607003</v>
       </c>
       <c r="K20">
-        <v>2289.937642095222</v>
+        <v>3987515.883222743</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1127,31 +1145,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.57028548675154</v>
+        <v>1116433.606814623</v>
       </c>
       <c r="G21">
-        <v>89.34295596878772</v>
+        <v>4841326.32590799</v>
       </c>
       <c r="H21">
-        <v>2010.071544224992</v>
+        <v>3985954.254091044</v>
       </c>
       <c r="I21">
-        <v>-552.7747203948434</v>
+        <v>1115566.363047424</v>
       </c>
       <c r="J21">
-        <v>1230.969024299018</v>
+        <v>4842290.842099672</v>
       </c>
       <c r="K21">
-        <v>2312.556659533489</v>
+        <v>3987547.003282742</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1162,31 +1180,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.73203293073855</v>
+        <v>1116430.830793043</v>
       </c>
       <c r="G22">
-        <v>104.3734898954682</v>
+        <v>4841342.838739509</v>
       </c>
       <c r="H22">
-        <v>2040.315724876642</v>
+        <v>3985978.150992438</v>
       </c>
       <c r="I22">
-        <v>-520.0191700446834</v>
+        <v>1115613.376592501</v>
       </c>
       <c r="J22">
-        <v>1175.290803434618</v>
+        <v>4842242.19059234</v>
       </c>
       <c r="K22">
-        <v>2324.165177976397</v>
+        <v>3987562.974701104</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1197,31 +1215,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>67.20216524620494</v>
+        <v>1116428.356394749</v>
       </c>
       <c r="G23">
-        <v>119.4040238221487</v>
+        <v>4841359.351571028</v>
       </c>
       <c r="H23">
-        <v>2068.327496172946</v>
+        <v>3986000.283995288</v>
       </c>
       <c r="I23">
-        <v>-486.4570444017045</v>
+        <v>1115661.547802874</v>
       </c>
       <c r="J23">
-        <v>1119.612582570218</v>
+        <v>4842193.539085008</v>
       </c>
       <c r="K23">
-        <v>2324.763197423945</v>
+        <v>3987563.797477828</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1232,31 +1250,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.92867959217968</v>
+        <v>1116426.132757101</v>
       </c>
       <c r="G24">
-        <v>134.4345577488292</v>
+        <v>4841375.864402548</v>
       </c>
       <c r="H24">
-        <v>2094.413886139178</v>
+        <v>3986020.895692326</v>
       </c>
       <c r="I24">
-        <v>-452.0684822913568</v>
+        <v>1115710.905184985</v>
       </c>
       <c r="J24">
-        <v>1063.934361705818</v>
+        <v>4842144.887577676</v>
       </c>
       <c r="K24">
-        <v>2314.350717876134</v>
+        <v>3987549.471612916</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1267,31 +1285,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>62.87106041217597</v>
+        <v>1116424.120252882</v>
       </c>
       <c r="G25">
-        <v>149.4650916755097</v>
+        <v>4841392.377234067</v>
       </c>
       <c r="H25">
-        <v>2118.822638431943</v>
+        <v>3986040.181833796</v>
       </c>
       <c r="I25">
-        <v>-416.8331334759385</v>
+        <v>1115761.477947224</v>
       </c>
       <c r="J25">
-        <v>1008.256140841418</v>
+        <v>4842096.236070344</v>
       </c>
       <c r="K25">
-        <v>2292.927739332964</v>
+        <v>3987519.997106367</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1302,31 +1320,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.99721394705845</v>
+        <v>1116422.287492012</v>
       </c>
       <c r="G26">
-        <v>164.4956256021902</v>
+        <v>4841408.890065586</v>
       </c>
       <c r="H26">
-        <v>2141.756556752274</v>
+        <v>3986058.302661436</v>
       </c>
       <c r="I26">
-        <v>-380.7301466118673</v>
+        <v>1115813.296017206</v>
       </c>
       <c r="J26">
-        <v>952.5779199770179</v>
+        <v>4842047.584563013</v>
       </c>
       <c r="K26">
-        <v>2260.494261794435</v>
+        <v>3987475.373958181</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1337,31 +1355,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.28134568003725</v>
+        <v>1116420.609245541</v>
       </c>
       <c r="G27">
-        <v>179.5261595288707</v>
+        <v>4841425.402897106</v>
       </c>
       <c r="H27">
-        <v>2163.383757162776</v>
+        <v>3986075.391009161</v>
       </c>
       <c r="I27">
-        <v>-343.7381569104072</v>
+        <v>1115866.39005949</v>
       </c>
       <c r="J27">
-        <v>896.8996991126178</v>
+        <v>4841998.93305568</v>
       </c>
       <c r="K27">
-        <v>2217.050285260547</v>
+        <v>3987415.602168358</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1372,31 +1390,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.70245638812447</v>
+        <v>1116419.06497467</v>
       </c>
       <c r="G28">
-        <v>194.5566934555512</v>
+        <v>4841441.915728625</v>
       </c>
       <c r="H28">
-        <v>2183.845153861574</v>
+        <v>3986091.55821782</v>
       </c>
       <c r="I28">
-        <v>-305.8352734945553</v>
+        <v>1115920.791493719</v>
       </c>
       <c r="J28">
-        <v>841.221478248218</v>
+        <v>4841950.281548349</v>
       </c>
       <c r="K28">
-        <v>2162.5958097313</v>
+        <v>3987340.681736898</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1407,31 +1425,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.24325461736112</v>
+        <v>1116417.637767075</v>
       </c>
       <c r="G29">
-        <v>209.5872273822317</v>
+        <v>4841458.428560144</v>
       </c>
       <c r="H29">
-        <v>2203.260028572497</v>
+        <v>3986106.898535744</v>
       </c>
       <c r="I29">
-        <v>-266.999066444601</v>
+        <v>1115976.532513218</v>
       </c>
       <c r="J29">
-        <v>785.5432573838179</v>
+        <v>4841901.630041017</v>
       </c>
       <c r="K29">
-        <v>2097.130835206694</v>
+        <v>3987250.612663801</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1442,31 +1460,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.88935594087056</v>
+        <v>1116416.31355372</v>
       </c>
       <c r="G30">
-        <v>224.6177613089122</v>
+        <v>4841474.941391664</v>
       </c>
       <c r="H30">
-        <v>2221.730243707655</v>
+        <v>3986121.492447706</v>
       </c>
       <c r="I30">
-        <v>-227.2065535246971</v>
+        <v>1116033.646104042</v>
       </c>
       <c r="J30">
-        <v>729.8650365194178</v>
+        <v>4841852.978533686</v>
       </c>
       <c r="K30">
-        <v>2020.655361686728</v>
+        <v>3987145.394949067</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1477,31 +1495,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.6286837692698</v>
+        <v>1116415.080522802</v>
       </c>
       <c r="G31">
-        <v>239.6482952355927</v>
+        <v>4841491.454223183</v>
       </c>
       <c r="H31">
-        <v>2239.343477278091</v>
+        <v>3986135.409230928</v>
       </c>
       <c r="I31">
-        <v>-186.4341865825812</v>
+        <v>1116092.166064495</v>
       </c>
       <c r="J31">
-        <v>674.186815655018</v>
+        <v>4841804.327026353</v>
       </c>
       <c r="K31">
-        <v>1933.169389171403</v>
+        <v>3987025.028592696</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1512,31 +1530,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>52.45101441504826</v>
+        <v>1116413.928674798</v>
       </c>
       <c r="G32">
-        <v>254.6788291622732</v>
+        <v>4841507.967054702</v>
       </c>
       <c r="H32">
-        <v>2256.175740066984</v>
+        <v>3986148.708943979</v>
       </c>
       <c r="I32">
-        <v>-144.6578376144056</v>
+        <v>1116152.127025138</v>
       </c>
       <c r="J32">
-        <v>618.5085947906178</v>
+        <v>4841755.675519021</v>
       </c>
       <c r="K32">
-        <v>1834.672917660719</v>
+        <v>3986889.513594688</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1547,31 +1565,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.34762711008653</v>
+        <v>1116412.84948015</v>
       </c>
       <c r="G33">
-        <v>269.7093630889537</v>
+        <v>4841524.479886222</v>
       </c>
       <c r="H33">
-        <v>2272.293358068706</v>
+        <v>3986161.443993162</v>
       </c>
       <c r="I33">
-        <v>-101.8527844864247</v>
+        <v>1116213.564469273</v>
       </c>
       <c r="J33">
-        <v>562.830373926218</v>
+        <v>4841707.02401169</v>
       </c>
       <c r="K33">
-        <v>1725.165947154676</v>
+        <v>3986738.849955043</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1582,31 +1600,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.31103152695082</v>
+        <v>1116411.835612761</v>
       </c>
       <c r="G34">
-        <v>284.7398970156342</v>
+        <v>4841540.992717741</v>
       </c>
       <c r="H34">
-        <v>2287.754550971286</v>
+        <v>3986173.660379729</v>
       </c>
       <c r="I34">
-        <v>-57.99369630509396</v>
+        <v>1116276.514753949</v>
       </c>
       <c r="J34">
-        <v>507.152153061818</v>
+        <v>4841658.372504358</v>
       </c>
       <c r="K34">
-        <v>1604.648477653274</v>
+        <v>3986573.037673761</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1617,31 +1635,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.33475331406857</v>
+        <v>1116410.880740236</v>
       </c>
       <c r="G35">
-        <v>299.7704309423147</v>
+        <v>4841557.505549259</v>
       </c>
       <c r="H35">
-        <v>2302.610701602379</v>
+        <v>3986185.398702906</v>
       </c>
       <c r="I35">
-        <v>-13.05461842691945</v>
+        <v>1116341.015131472</v>
       </c>
       <c r="J35">
-        <v>451.4739321974179</v>
+        <v>4841609.720997026</v>
       </c>
       <c r="K35">
-        <v>1473.120509156512</v>
+        <v>3986392.076750842</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1652,31 +1670,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.41316359707424</v>
+        <v>1116409.979357117</v>
       </c>
       <c r="G36">
-        <v>314.8009648689953</v>
+        <v>4841574.01838078</v>
       </c>
       <c r="H36">
-        <v>2316.907386215289</v>
+        <v>3986196.694973961</v>
       </c>
       <c r="I36">
-        <v>32.99104290081168</v>
+        <v>1116407.103771452</v>
       </c>
       <c r="J36">
-        <v>395.795711333018</v>
+        <v>4841561.069489694</v>
       </c>
       <c r="K36">
-        <v>1330.582041664391</v>
+        <v>3986195.967186287</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1687,31 +1705,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.54134218105693</v>
+        <v>1116409.126651088</v>
       </c>
       <c r="G37">
-        <v>329.8314987956757</v>
+        <v>4841590.531212299</v>
       </c>
       <c r="H37">
-        <v>2330.685217725895</v>
+        <v>3986207.581282465</v>
       </c>
       <c r="I37">
-        <v>80.17053627750646</v>
+        <v>1116474.819783391</v>
       </c>
       <c r="J37">
-        <v>340.1174904686179</v>
+        <v>4841512.417982363</v>
       </c>
       <c r="K37">
-        <v>1177.033075176912</v>
+        <v>3985984.708980094</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1722,31 +1740,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.71496685704523</v>
+        <v>1116408.31839471</v>
       </c>
       <c r="G38">
-        <v>344.8620327223562</v>
+        <v>4841607.044043818</v>
       </c>
       <c r="H38">
-        <v>2343.980541227353</v>
+        <v>3986218.086345848</v>
       </c>
       <c r="I38">
-        <v>128.5117812742647</v>
+        <v>1116544.203239826</v>
       </c>
       <c r="J38">
-        <v>284.4392696042181</v>
+        <v>4841463.766475031</v>
       </c>
       <c r="K38">
-        <v>1012.473609694073</v>
+        <v>3985758.302132264</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1757,31 +1775,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.93022312503909</v>
+        <v>1116407.550857117</v>
       </c>
       <c r="G39">
-        <v>359.8925666490367</v>
+        <v>4841623.556875338</v>
       </c>
       <c r="H39">
-        <v>2356.826011788599</v>
+        <v>3986228.235965932</v>
       </c>
       <c r="I39">
-        <v>178.0433849559378</v>
+        <v>1116615.295200045</v>
       </c>
       <c r="J39">
-        <v>228.761048739818</v>
+        <v>4841415.114967699</v>
       </c>
       <c r="K39">
-        <v>836.9036452158742</v>
+        <v>3985516.746642797</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1792,31 +1810,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.18373002899351</v>
+        <v>1116406.820731485</v>
       </c>
       <c r="G40">
-        <v>374.9231005757172</v>
+        <v>4841640.069706857</v>
       </c>
       <c r="H40">
-        <v>2369.251077664167</v>
+        <v>3986238.053410732</v>
       </c>
       <c r="I40">
-        <v>228.7946588100326</v>
+        <v>1116688.137734381</v>
       </c>
       <c r="J40">
-        <v>173.0828278754179</v>
+        <v>4841366.463460367</v>
       </c>
       <c r="K40">
-        <v>650.3231817423168</v>
+        <v>3985260.042511693</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1827,31 +1845,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.47247881315815</v>
+        <v>1116406.125075025</v>
       </c>
       <c r="G41">
-        <v>389.9536345023977</v>
+        <v>4841656.582538376</v>
       </c>
       <c r="H41">
-        <v>2381.282386909318</v>
+        <v>3986247.559735733</v>
       </c>
       <c r="I41">
-        <v>280.7956360924679</v>
+        <v>1116762.77394911</v>
       </c>
       <c r="J41">
-        <v>117.4046070110181</v>
+        <v>4841317.811953035</v>
       </c>
       <c r="K41">
-        <v>452.7322192734006</v>
+        <v>3984988.189738952</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1862,31 +1880,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.79378186079111</v>
+        <v>1116405.461259051</v>
       </c>
       <c r="G42">
-        <v>404.9841684290782</v>
+        <v>4841673.095369896</v>
       </c>
       <c r="H42">
-        <v>2392.94413152334</v>
+        <v>3986256.774055814</v>
       </c>
       <c r="I42">
-        <v>334.0770896004625</v>
+        <v>1116839.248011963</v>
       </c>
       <c r="J42">
-        <v>61.72638614661798</v>
+        <v>4841269.160445704</v>
       </c>
       <c r="K42">
-        <v>244.1307578091246</v>
+        <v>3984701.188324574</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1897,31 +1915,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.14522993910314</v>
+        <v>1116404.826927154</v>
       </c>
       <c r="G43">
-        <v>420.0147023557587</v>
+        <v>4841689.608201415</v>
       </c>
       <c r="H43">
-        <v>2404.258340296197</v>
+        <v>3986265.713776633</v>
       </c>
       <c r="I43">
-        <v>388.6705498830526</v>
+        <v>1116917.60517826</v>
       </c>
       <c r="J43">
-        <v>6.048165282217893</v>
+        <v>4841220.508938371</v>
       </c>
       <c r="K43">
-        <v>24.51879734948953</v>
+        <v>3984399.03826856</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1932,31 +1950,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.52465619982191</v>
+        <v>1116404.219959994</v>
       </c>
       <c r="G44">
-        <v>435.0452362824392</v>
+        <v>4841706.121032934</v>
       </c>
       <c r="H44">
-        <v>2415.245129268817</v>
+        <v>3986274.394792519</v>
       </c>
       <c r="I44">
-        <v>444.6083239000384</v>
+        <v>1116997.891817689</v>
       </c>
       <c r="J44">
-        <v>-49.63005558218194</v>
+        <v>4841171.85743104</v>
       </c>
       <c r="K44">
-        <v>-206.103662105504</v>
+        <v>3984081.739570908</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1967,31 +1985,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.93010570936814</v>
+        <v>1116403.638445503</v>
       </c>
       <c r="G45">
-        <v>450.0757702091196</v>
+        <v>4841722.633864453</v>
       </c>
       <c r="H45">
-        <v>2425.922916962352</v>
+        <v>3986282.831656541</v>
       </c>
       <c r="I45">
-        <v>501.9235141403844</v>
+        <v>1117080.155441751</v>
       </c>
       <c r="J45">
-        <v>-105.308276446582</v>
+        <v>4841123.205923708</v>
       </c>
       <c r="K45">
-        <v>-447.7366205558574</v>
+        <v>3983749.292231619</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2002,31 +2020,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.35980953233156</v>
+        <v>1116403.080653529</v>
       </c>
       <c r="G46">
-        <v>465.1063041358003</v>
+        <v>4841739.146695972</v>
       </c>
       <c r="H46">
-        <v>2436.308610160955</v>
+        <v>3986291.037727294</v>
       </c>
       <c r="I46">
-        <v>560.6500382113911</v>
+        <v>1117164.444731876</v>
       </c>
       <c r="J46">
-        <v>-160.9864973109821</v>
+        <v>4841074.554416376</v>
       </c>
       <c r="K46">
-        <v>-700.3800780015705</v>
+        <v>3983401.696250693</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2037,31 +2055,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.81216258553618</v>
+        <v>1116402.545014184</v>
       </c>
       <c r="G47">
-        <v>480.1368380624807</v>
+        <v>4841755.659527492</v>
       </c>
       <c r="H47">
-        <v>2446.41776495405</v>
+        <v>3986299.025296144</v>
       </c>
       <c r="I47">
-        <v>620.8226489102348</v>
+        <v>1117250.809568224</v>
       </c>
       <c r="J47">
-        <v>-216.6647181753822</v>
+        <v>4841025.902909044</v>
       </c>
       <c r="K47">
-        <v>-964.0340344426425</v>
+        <v>3983038.951628131</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2072,31 +2090,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.28570463119951</v>
+        <v>1116402.030099245</v>
       </c>
       <c r="G48">
-        <v>495.1673719891612</v>
+        <v>4841772.172359011</v>
       </c>
       <c r="H48">
-        <v>2456.264726889339</v>
+        <v>3986306.805697971</v>
       </c>
       <c r="I48">
-        <v>682.4769547897504</v>
+        <v>1117339.301059213</v>
       </c>
       <c r="J48">
-        <v>-272.3429390397818</v>
+        <v>4840977.251401713</v>
       </c>
       <c r="K48">
-        <v>-1238.698489879072</v>
+        <v>3982661.058363931</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2107,31 +2125,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.77910389663855</v>
+        <v>1116401.53460614</v>
       </c>
       <c r="G49">
-        <v>510.1979059158417</v>
+        <v>4841788.68519053</v>
       </c>
       <c r="H49">
-        <v>2465.86275340603</v>
+        <v>3986314.389407905</v>
       </c>
       <c r="I49">
-        <v>745.6494412306283</v>
+        <v>1117429.971571758</v>
       </c>
       <c r="J49">
-        <v>-328.0211599041819</v>
+        <v>4840928.599894381</v>
       </c>
       <c r="K49">
-        <v>-1524.373444310861</v>
+        <v>3982268.016458094</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2142,31 +2160,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.29114290215425</v>
+        <v>1116401.057344084</v>
       </c>
       <c r="G50">
-        <v>525.2284398425222</v>
+        <v>4841805.19802205</v>
       </c>
       <c r="H50">
-        <v>2475.22412117051</v>
+        <v>3986321.786126135</v>
       </c>
       <c r="I50">
-        <v>810.3774920324906</v>
+        <v>1117522.874762258</v>
       </c>
       <c r="J50">
-        <v>-383.699380768582</v>
+        <v>4840879.948387048</v>
       </c>
       <c r="K50">
-        <v>-1821.058897738011</v>
+        <v>3981859.82591062</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2177,31 +2195,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.82070615376634</v>
+        <v>1116400.597222041</v>
       </c>
       <c r="G51">
-        <v>540.2589737692026</v>
+        <v>4841821.710853569</v>
       </c>
       <c r="H51">
-        <v>2484.360220494882</v>
+        <v>3986329.004852514</v>
       </c>
       <c r="I51">
-        <v>876.699411536634</v>
+        <v>1117618.065608355</v>
       </c>
       <c r="J51">
-        <v>-439.3776016329821</v>
+        <v>4840831.296879717</v>
       </c>
       <c r="K51">
-        <v>-2128.75485016052</v>
+        <v>3981436.48672151</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2212,31 +2230,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.36676941761726</v>
+        <v>1116400.153238234</v>
       </c>
       <c r="G52">
-        <v>555.2895076958832</v>
+        <v>4841838.223685089</v>
       </c>
       <c r="H52">
-        <v>2493.281638659977</v>
+        <v>3986336.053952394</v>
       </c>
       <c r="I52">
-        <v>944.6544472935205</v>
+        <v>1117715.600441464</v>
       </c>
       <c r="J52">
-        <v>-495.0558224973822</v>
+        <v>4840782.645372385</v>
       </c>
       <c r="K52">
-        <v>-2447.461301578388</v>
+        <v>3980997.998890762</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2247,31 +2265,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.92839034133747</v>
+        <v>1116399.724470972</v>
       </c>
       <c r="G53">
-        <v>570.3200416225636</v>
+        <v>4841854.736516608</v>
       </c>
       <c r="H53">
-        <v>2501.998233671643</v>
+        <v>3986342.941214902</v>
       </c>
       <c r="I53">
-        <v>1014.282813288432</v>
+        <v>1117815.536980107</v>
       </c>
       <c r="J53">
-        <v>-550.7340433617817</v>
+        <v>4840733.993865054</v>
       </c>
       <c r="K53">
-        <v>-2777.178251991612</v>
+        <v>3980544.362418377</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2282,31 +2300,3741 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.504700226952</v>
+        <v>1116399.310070605</v>
       </c>
       <c r="G54">
-        <v>585.3505755492441</v>
+        <v>4841871.249348127</v>
       </c>
       <c r="H54">
-        <v>2510.519199738865</v>
+        <v>3986349.673904679</v>
       </c>
       <c r="I54">
-        <v>1085.625713739048</v>
+        <v>1117917.934364074</v>
       </c>
       <c r="J54">
-        <v>-606.4122642261818</v>
+        <v>4840685.342357721</v>
       </c>
       <c r="K54">
-        <v>-3117.905701400198</v>
+        <v>3980075.577304356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>1116581.22590774</v>
+      </c>
+      <c r="G55">
+        <v>4841122.952034032</v>
+      </c>
+      <c r="H55">
+        <v>3985230.042176823</v>
+      </c>
+      <c r="I55">
+        <v>1114860.080043127</v>
+      </c>
+      <c r="J55">
+        <v>4843216.172342976</v>
+      </c>
+      <c r="K55">
+        <v>3984372.751467524</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>1116581.22590774</v>
+      </c>
+      <c r="G56">
+        <v>4841122.952034032</v>
+      </c>
+      <c r="H56">
+        <v>3985230.042176823</v>
+      </c>
+      <c r="I56">
+        <v>1114889.69400566</v>
+      </c>
+      <c r="J56">
+        <v>4843167.520826085</v>
+      </c>
+      <c r="K56">
+        <v>3984676.547644802</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>27</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>1116581.22590774</v>
+      </c>
+      <c r="G57">
+        <v>4841122.952034032</v>
+      </c>
+      <c r="H57">
+        <v>3985230.042176823</v>
+      </c>
+      <c r="I57">
+        <v>1114920.037184776</v>
+      </c>
+      <c r="J57">
+        <v>4843118.869309193</v>
+      </c>
+      <c r="K57">
+        <v>3984965.19515213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>1116581.22590774</v>
+      </c>
+      <c r="G58">
+        <v>4841122.952034032</v>
+      </c>
+      <c r="H58">
+        <v>3985230.042176823</v>
+      </c>
+      <c r="I58">
+        <v>1114951.127536762</v>
+      </c>
+      <c r="J58">
+        <v>4843070.217792302</v>
+      </c>
+      <c r="K58">
+        <v>3985238.693989507</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>1116581.22590774</v>
+      </c>
+      <c r="G59">
+        <v>4841122.952034032</v>
+      </c>
+      <c r="H59">
+        <v>3985230.042176823</v>
+      </c>
+      <c r="I59">
+        <v>1114982.983460063</v>
+      </c>
+      <c r="J59">
+        <v>4843021.566275411</v>
+      </c>
+      <c r="K59">
+        <v>3985497.044156934</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>1116581.22590774</v>
+      </c>
+      <c r="G60">
+        <v>4841122.952034032</v>
+      </c>
+      <c r="H60">
+        <v>3985230.042176823</v>
+      </c>
+      <c r="I60">
+        <v>1115015.623806169</v>
+      </c>
+      <c r="J60">
+        <v>4842972.914758521</v>
+      </c>
+      <c r="K60">
+        <v>3985740.24565441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>1116581.22590774</v>
+      </c>
+      <c r="G61">
+        <v>4841122.952034032</v>
+      </c>
+      <c r="H61">
+        <v>3985230.042176823</v>
+      </c>
+      <c r="I61">
+        <v>1115049.067890769</v>
+      </c>
+      <c r="J61">
+        <v>4842924.263241629</v>
+      </c>
+      <c r="K61">
+        <v>3985968.298481935</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>1116581.22590774</v>
+      </c>
+      <c r="G62">
+        <v>4841122.952034032</v>
+      </c>
+      <c r="H62">
+        <v>3985230.042176823</v>
+      </c>
+      <c r="I62">
+        <v>1115083.335505184</v>
+      </c>
+      <c r="J62">
+        <v>4842875.611724738</v>
+      </c>
+      <c r="K62">
+        <v>3986181.202639509</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>1116581.22590774</v>
+      </c>
+      <c r="G63">
+        <v>4841139.464847747</v>
+      </c>
+      <c r="H63">
+        <v>3985230.042176823</v>
+      </c>
+      <c r="I63">
+        <v>1115118.446928079</v>
+      </c>
+      <c r="J63">
+        <v>4842826.960207848</v>
+      </c>
+      <c r="K63">
+        <v>3986378.958127132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>27</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>1116532.545225294</v>
+      </c>
+      <c r="G64">
+        <v>4841155.977661462</v>
+      </c>
+      <c r="H64">
+        <v>3985429.296669286</v>
+      </c>
+      <c r="I64">
+        <v>1115154.422937461</v>
+      </c>
+      <c r="J64">
+        <v>4842778.308690957</v>
+      </c>
+      <c r="K64">
+        <v>3986561.564944804</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>27</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>1116503.947766443</v>
+      </c>
+      <c r="G65">
+        <v>4841172.490475176</v>
+      </c>
+      <c r="H65">
+        <v>3985547.982835258</v>
+      </c>
+      <c r="I65">
+        <v>1115191.284822976</v>
+      </c>
+      <c r="J65">
+        <v>4842729.657174066</v>
+      </c>
+      <c r="K65">
+        <v>3986729.023092526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>1116485.894952401</v>
+      </c>
+      <c r="G66">
+        <v>4841189.003288891</v>
+      </c>
+      <c r="H66">
+        <v>3985632.799816387</v>
+      </c>
+      <c r="I66">
+        <v>1115229.05439851</v>
+      </c>
+      <c r="J66">
+        <v>4842681.005657175</v>
+      </c>
+      <c r="K66">
+        <v>3986881.332570296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>27</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>1116473.304993169</v>
+      </c>
+      <c r="G67">
+        <v>4841205.516102605</v>
+      </c>
+      <c r="H67">
+        <v>3985698.846754151</v>
+      </c>
+      <c r="I67">
+        <v>1115267.754015094</v>
+      </c>
+      <c r="J67">
+        <v>4842632.354140284</v>
+      </c>
+      <c r="K67">
+        <v>3987018.493378116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>1116463.912506555</v>
+      </c>
+      <c r="G68">
+        <v>4841222.02891632</v>
+      </c>
+      <c r="H68">
+        <v>3985752.944319248</v>
+      </c>
+      <c r="I68">
+        <v>1115307.406574133</v>
+      </c>
+      <c r="J68">
+        <v>4842583.702623393</v>
+      </c>
+      <c r="K68">
+        <v>3987140.505515986</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>1116456.568893645</v>
+      </c>
+      <c r="G69">
+        <v>4841238.541730033</v>
+      </c>
+      <c r="H69">
+        <v>3985798.761007954</v>
+      </c>
+      <c r="I69">
+        <v>1115348.035540959</v>
+      </c>
+      <c r="J69">
+        <v>4842535.051106501</v>
+      </c>
+      <c r="K69">
+        <v>3987247.368983904</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>27</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>1116450.627376095</v>
+      </c>
+      <c r="G70">
+        <v>4841255.054543748</v>
+      </c>
+      <c r="H70">
+        <v>3985838.498640944</v>
+      </c>
+      <c r="I70">
+        <v>1115389.664958715</v>
+      </c>
+      <c r="J70">
+        <v>4842486.399589611</v>
+      </c>
+      <c r="K70">
+        <v>3987339.083781871</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>1116445.693799447</v>
+      </c>
+      <c r="G71">
+        <v>4841271.567357464</v>
+      </c>
+      <c r="H71">
+        <v>3985873.583038688</v>
+      </c>
+      <c r="I71">
+        <v>1115432.319462585</v>
+      </c>
+      <c r="J71">
+        <v>4842437.74807272</v>
+      </c>
+      <c r="K71">
+        <v>3987415.649909888</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>1116441.512964444</v>
+      </c>
+      <c r="G72">
+        <v>4841288.080171177</v>
+      </c>
+      <c r="H72">
+        <v>3985904.990634663</v>
+      </c>
+      <c r="I72">
+        <v>1115476.024294371</v>
+      </c>
+      <c r="J72">
+        <v>4842389.096555829</v>
+      </c>
+      <c r="K72">
+        <v>3987477.067367954</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>1116437.911582972</v>
+      </c>
+      <c r="G73">
+        <v>4841304.592984892</v>
+      </c>
+      <c r="H73">
+        <v>3985933.419497254</v>
+      </c>
+      <c r="I73">
+        <v>1115520.805317433</v>
+      </c>
+      <c r="J73">
+        <v>4842340.445038938</v>
+      </c>
+      <c r="K73">
+        <v>3987523.336156069</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>1116434.767390857</v>
+      </c>
+      <c r="G74">
+        <v>4841321.105798607</v>
+      </c>
+      <c r="H74">
+        <v>3985959.386017163</v>
+      </c>
+      <c r="I74">
+        <v>1115566.689031989</v>
+      </c>
+      <c r="J74">
+        <v>4842291.793522047</v>
+      </c>
+      <c r="K74">
+        <v>3987554.456274234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>1116431.991366392</v>
+      </c>
+      <c r="G75">
+        <v>4841337.618612321</v>
+      </c>
+      <c r="H75">
+        <v>3985983.282949324</v>
+      </c>
+      <c r="I75">
+        <v>1115613.702590804</v>
+      </c>
+      <c r="J75">
+        <v>4842243.142005157</v>
+      </c>
+      <c r="K75">
+        <v>3987570.427722448</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>27</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>1116429.516965525</v>
+      </c>
+      <c r="G76">
+        <v>4841354.131426035</v>
+      </c>
+      <c r="H76">
+        <v>3986005.41598067</v>
+      </c>
+      <c r="I76">
+        <v>1115661.873815254</v>
+      </c>
+      <c r="J76">
+        <v>4842194.490488266</v>
+      </c>
+      <c r="K76">
+        <v>3987571.25050071</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>27</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>1116427.293325567</v>
+      </c>
+      <c r="G77">
+        <v>4841370.644239751</v>
+      </c>
+      <c r="H77">
+        <v>3986026.027704246</v>
+      </c>
+      <c r="I77">
+        <v>1115711.231211788</v>
+      </c>
+      <c r="J77">
+        <v>4842145.838971374</v>
+      </c>
+      <c r="K77">
+        <v>3987556.924609022</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>1116425.280819255</v>
+      </c>
+      <c r="G78">
+        <v>4841387.157053465</v>
+      </c>
+      <c r="H78">
+        <v>3986045.313870547</v>
+      </c>
+      <c r="I78">
+        <v>1115761.803988805</v>
+      </c>
+      <c r="J78">
+        <v>4842097.187454483</v>
+      </c>
+      <c r="K78">
+        <v>3987527.450047383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>1116423.44805648</v>
+      </c>
+      <c r="G79">
+        <v>4841403.669867179</v>
+      </c>
+      <c r="H79">
+        <v>3986063.434721517</v>
+      </c>
+      <c r="I79">
+        <v>1115813.622073929</v>
+      </c>
+      <c r="J79">
+        <v>4842048.535937592</v>
+      </c>
+      <c r="K79">
+        <v>3987482.826815793</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>27</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>1116421.769808264</v>
+      </c>
+      <c r="G80">
+        <v>4841420.182680894</v>
+      </c>
+      <c r="H80">
+        <v>3986080.523091244</v>
+      </c>
+      <c r="I80">
+        <v>1115866.716131728</v>
+      </c>
+      <c r="J80">
+        <v>4841999.884420701</v>
+      </c>
+      <c r="K80">
+        <v>3987423.054914253</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>27</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>1116420.225535788</v>
+      </c>
+      <c r="G81">
+        <v>4841436.695494608</v>
+      </c>
+      <c r="H81">
+        <v>3986096.690320718</v>
+      </c>
+      <c r="I81">
+        <v>1115921.117581854</v>
+      </c>
+      <c r="J81">
+        <v>4841951.23290381</v>
+      </c>
+      <c r="K81">
+        <v>3987348.134342761</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>27</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>1116418.79832671</v>
+      </c>
+      <c r="G82">
+        <v>4841453.208308323</v>
+      </c>
+      <c r="H82">
+        <v>3986112.030658392</v>
+      </c>
+      <c r="I82">
+        <v>1115976.858617641</v>
+      </c>
+      <c r="J82">
+        <v>4841902.581386919</v>
+      </c>
+      <c r="K82">
+        <v>3987258.065101319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>27</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>1116417.474111977</v>
+      </c>
+      <c r="G83">
+        <v>4841469.721122037</v>
+      </c>
+      <c r="H83">
+        <v>3986126.624589145</v>
+      </c>
+      <c r="I83">
+        <v>1116033.972225154</v>
+      </c>
+      <c r="J83">
+        <v>4841853.929870029</v>
+      </c>
+      <c r="K83">
+        <v>3987152.847189927</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>27</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>1116416.241079778</v>
+      </c>
+      <c r="G84">
+        <v>4841486.233935752</v>
+      </c>
+      <c r="H84">
+        <v>3986140.541390285</v>
+      </c>
+      <c r="I84">
+        <v>1116092.492202708</v>
+      </c>
+      <c r="J84">
+        <v>4841805.278353137</v>
+      </c>
+      <c r="K84">
+        <v>3987032.480608583</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>27</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>1116415.089230577</v>
+      </c>
+      <c r="G85">
+        <v>4841502.746749467</v>
+      </c>
+      <c r="H85">
+        <v>3986153.841120459</v>
+      </c>
+      <c r="I85">
+        <v>1116152.453180872</v>
+      </c>
+      <c r="J85">
+        <v>4841756.626836247</v>
+      </c>
+      <c r="K85">
+        <v>3986896.965357288</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>27</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>1116414.010034807</v>
+      </c>
+      <c r="G86">
+        <v>4841519.259563181</v>
+      </c>
+      <c r="H86">
+        <v>3986166.576186038</v>
+      </c>
+      <c r="I86">
+        <v>1116213.890642961</v>
+      </c>
+      <c r="J86">
+        <v>4841707.975319356</v>
+      </c>
+      <c r="K86">
+        <v>3986746.301436043</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>27</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>1116412.996166364</v>
+      </c>
+      <c r="G87">
+        <v>4841535.772376896</v>
+      </c>
+      <c r="H87">
+        <v>3986178.792588333</v>
+      </c>
+      <c r="I87">
+        <v>1116276.840946032</v>
+      </c>
+      <c r="J87">
+        <v>4841659.323802465</v>
+      </c>
+      <c r="K87">
+        <v>3986580.488844846</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>27</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>1116412.041292846</v>
+      </c>
+      <c r="G88">
+        <v>4841552.285190609</v>
+      </c>
+      <c r="H88">
+        <v>3986190.530926624</v>
+      </c>
+      <c r="I88">
+        <v>1116341.341342402</v>
+      </c>
+      <c r="J88">
+        <v>4841610.672285574</v>
+      </c>
+      <c r="K88">
+        <v>3986399.5275837</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>27</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>1116411.13990879</v>
+      </c>
+      <c r="G89">
+        <v>4841568.798004325</v>
+      </c>
+      <c r="H89">
+        <v>3986201.827212222</v>
+      </c>
+      <c r="I89">
+        <v>1116407.430001694</v>
+      </c>
+      <c r="J89">
+        <v>4841562.020768682</v>
+      </c>
+      <c r="K89">
+        <v>3986203.417652602</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>27</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>1116410.287201875</v>
+      </c>
+      <c r="G90">
+        <v>4841585.310818039</v>
+      </c>
+      <c r="H90">
+        <v>3986212.713534743</v>
+      </c>
+      <c r="I90">
+        <v>1116475.146033421</v>
+      </c>
+      <c r="J90">
+        <v>4841513.369251792</v>
+      </c>
+      <c r="K90">
+        <v>3985992.159051553</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>27</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>1116409.478944657</v>
+      </c>
+      <c r="G91">
+        <v>4841601.823631753</v>
+      </c>
+      <c r="H91">
+        <v>3986223.218611652</v>
+      </c>
+      <c r="I91">
+        <v>1116544.529510131</v>
+      </c>
+      <c r="J91">
+        <v>4841464.717734901</v>
+      </c>
+      <c r="K91">
+        <v>3985765.751780554</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>27</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>1116408.711406266</v>
+      </c>
+      <c r="G92">
+        <v>4841618.336445468</v>
+      </c>
+      <c r="H92">
+        <v>3986233.368244803</v>
+      </c>
+      <c r="I92">
+        <v>1116615.621491124</v>
+      </c>
+      <c r="J92">
+        <v>4841416.066218009</v>
+      </c>
+      <c r="K92">
+        <v>3985524.195839603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>27</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>1116407.981279874</v>
+      </c>
+      <c r="G93">
+        <v>4841634.849259183</v>
+      </c>
+      <c r="H93">
+        <v>3986243.185702242</v>
+      </c>
+      <c r="I93">
+        <v>1116688.464046745</v>
+      </c>
+      <c r="J93">
+        <v>4841367.414701119</v>
+      </c>
+      <c r="K93">
+        <v>3985267.491228703</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>27</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>1116407.285622692</v>
+      </c>
+      <c r="G94">
+        <v>4841651.362072897</v>
+      </c>
+      <c r="H94">
+        <v>3986252.692039483</v>
+      </c>
+      <c r="I94">
+        <v>1116763.100283284</v>
+      </c>
+      <c r="J94">
+        <v>4841318.763184228</v>
+      </c>
+      <c r="K94">
+        <v>3984995.637947851</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>27</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>1116406.621806028</v>
+      </c>
+      <c r="G95">
+        <v>4841667.874886611</v>
+      </c>
+      <c r="H95">
+        <v>3986261.906371428</v>
+      </c>
+      <c r="I95">
+        <v>1116839.574368485</v>
+      </c>
+      <c r="J95">
+        <v>4841270.111667338</v>
+      </c>
+      <c r="K95">
+        <v>3984708.635997048</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>27</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>1116405.987473471</v>
+      </c>
+      <c r="G96">
+        <v>4841684.387700327</v>
+      </c>
+      <c r="H96">
+        <v>3986270.846103756</v>
+      </c>
+      <c r="I96">
+        <v>1116917.931557678</v>
+      </c>
+      <c r="J96">
+        <v>4841221.460150446</v>
+      </c>
+      <c r="K96">
+        <v>3984406.485376295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>27</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>1116405.38050568</v>
+      </c>
+      <c r="G97">
+        <v>4841700.900514041</v>
+      </c>
+      <c r="H97">
+        <v>3986279.527130819</v>
+      </c>
+      <c r="I97">
+        <v>1116998.218220568</v>
+      </c>
+      <c r="J97">
+        <v>4841172.808633555</v>
+      </c>
+      <c r="K97">
+        <v>3984089.186085591</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>27</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>1116404.798990584</v>
+      </c>
+      <c r="G98">
+        <v>4841717.413327755</v>
+      </c>
+      <c r="H98">
+        <v>3986287.964005704</v>
+      </c>
+      <c r="I98">
+        <v>1117080.481868669</v>
+      </c>
+      <c r="J98">
+        <v>4841124.157116665</v>
+      </c>
+      <c r="K98">
+        <v>3983756.738124936</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>27</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>1116404.241198031</v>
+      </c>
+      <c r="G99">
+        <v>4841733.92614147</v>
+      </c>
+      <c r="H99">
+        <v>3986296.170087022</v>
+      </c>
+      <c r="I99">
+        <v>1117164.771183424</v>
+      </c>
+      <c r="J99">
+        <v>4841075.505599773</v>
+      </c>
+      <c r="K99">
+        <v>3983409.14149433</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>27</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>1116403.705558129</v>
+      </c>
+      <c r="G100">
+        <v>4841750.438955184</v>
+      </c>
+      <c r="H100">
+        <v>3986304.157666157</v>
+      </c>
+      <c r="I100">
+        <v>1117251.136045009</v>
+      </c>
+      <c r="J100">
+        <v>4841026.854082882</v>
+      </c>
+      <c r="K100">
+        <v>3983046.396193773</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>27</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>1116403.190642655</v>
+      </c>
+      <c r="G101">
+        <v>4841766.951768899</v>
+      </c>
+      <c r="H101">
+        <v>3986311.938078001</v>
+      </c>
+      <c r="I101">
+        <v>1117339.627561857</v>
+      </c>
+      <c r="J101">
+        <v>4840978.202565991</v>
+      </c>
+      <c r="K101">
+        <v>3982668.502223266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>27</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>1116402.695149035</v>
+      </c>
+      <c r="G102">
+        <v>4841783.464582613</v>
+      </c>
+      <c r="H102">
+        <v>3986319.521797698</v>
+      </c>
+      <c r="I102">
+        <v>1117430.298100897</v>
+      </c>
+      <c r="J102">
+        <v>4840929.5510491</v>
+      </c>
+      <c r="K102">
+        <v>3982275.459582808</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>27</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>1116402.217886482</v>
+      </c>
+      <c r="G103">
+        <v>4841799.977396328</v>
+      </c>
+      <c r="H103">
+        <v>3986326.918525452</v>
+      </c>
+      <c r="I103">
+        <v>1117523.201318545</v>
+      </c>
+      <c r="J103">
+        <v>4840880.899532209</v>
+      </c>
+      <c r="K103">
+        <v>3981867.268272399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>27</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>1116401.757763961</v>
+      </c>
+      <c r="G104">
+        <v>4841816.490210043</v>
+      </c>
+      <c r="H104">
+        <v>3986334.137261125</v>
+      </c>
+      <c r="I104">
+        <v>1117618.392192458</v>
+      </c>
+      <c r="J104">
+        <v>4840832.248015318</v>
+      </c>
+      <c r="K104">
+        <v>3981443.928292039</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>27</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>1116401.313779692</v>
+      </c>
+      <c r="G105">
+        <v>4841833.003023757</v>
+      </c>
+      <c r="H105">
+        <v>3986341.186370081</v>
+      </c>
+      <c r="I105">
+        <v>1117715.927054067</v>
+      </c>
+      <c r="J105">
+        <v>4840783.596498428</v>
+      </c>
+      <c r="K105">
+        <v>3981005.439641728</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>27</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>1116400.885011985</v>
+      </c>
+      <c r="G106">
+        <v>4841849.515837472</v>
+      </c>
+      <c r="H106">
+        <v>3986348.073641456</v>
+      </c>
+      <c r="I106">
+        <v>1117815.863621914</v>
+      </c>
+      <c r="J106">
+        <v>4840734.944981537</v>
+      </c>
+      <c r="K106">
+        <v>3980551.802321467</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>27</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>1116400.470611187</v>
+      </c>
+      <c r="G107">
+        <v>4841866.028651186</v>
+      </c>
+      <c r="H107">
+        <v>3986354.806339902</v>
+      </c>
+      <c r="I107">
+        <v>1117918.261035803</v>
+      </c>
+      <c r="J107">
+        <v>4840686.293464645</v>
+      </c>
+      <c r="K107">
+        <v>3980083.016331255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>27</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116577.68204145</v>
+      </c>
+      <c r="G108">
+        <v>4841131.144266539</v>
+      </c>
+      <c r="H108">
+        <v>3985228.229037783</v>
+      </c>
+      <c r="I108">
+        <v>1114859.962448625</v>
+      </c>
+      <c r="J108">
+        <v>4843226.766044516</v>
+      </c>
+      <c r="K108">
+        <v>3984371.015689206</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>27</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116577.68204145</v>
+      </c>
+      <c r="G109">
+        <v>4841131.144266539</v>
+      </c>
+      <c r="H109">
+        <v>3985228.229037783</v>
+      </c>
+      <c r="I109">
+        <v>1114889.576408034</v>
+      </c>
+      <c r="J109">
+        <v>4843178.114421208</v>
+      </c>
+      <c r="K109">
+        <v>3984674.811734137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>27</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116577.68204145</v>
+      </c>
+      <c r="G110">
+        <v>4841131.144266539</v>
+      </c>
+      <c r="H110">
+        <v>3985228.229037783</v>
+      </c>
+      <c r="I110">
+        <v>1114919.919583949</v>
+      </c>
+      <c r="J110">
+        <v>4843129.4627979</v>
+      </c>
+      <c r="K110">
+        <v>3984963.459115717</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>27</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116577.68204145</v>
+      </c>
+      <c r="G111">
+        <v>4841131.144266539</v>
+      </c>
+      <c r="H111">
+        <v>3985228.229037783</v>
+      </c>
+      <c r="I111">
+        <v>1114951.009932656</v>
+      </c>
+      <c r="J111">
+        <v>4843080.811174592</v>
+      </c>
+      <c r="K111">
+        <v>3985236.957833945</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>27</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116577.68204145</v>
+      </c>
+      <c r="G112">
+        <v>4841131.144266539</v>
+      </c>
+      <c r="H112">
+        <v>3985228.229037783</v>
+      </c>
+      <c r="I112">
+        <v>1114982.865852597</v>
+      </c>
+      <c r="J112">
+        <v>4843032.159551284</v>
+      </c>
+      <c r="K112">
+        <v>3985495.307888823</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>27</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116577.68204145</v>
+      </c>
+      <c r="G113">
+        <v>4841131.144266539</v>
+      </c>
+      <c r="H113">
+        <v>3985228.229037783</v>
+      </c>
+      <c r="I113">
+        <v>1115015.50619526</v>
+      </c>
+      <c r="J113">
+        <v>4842983.507927977</v>
+      </c>
+      <c r="K113">
+        <v>3985738.509280349</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>27</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116577.68204145</v>
+      </c>
+      <c r="G114">
+        <v>4841131.144266539</v>
+      </c>
+      <c r="H114">
+        <v>3985228.229037783</v>
+      </c>
+      <c r="I114">
+        <v>1115048.950276333</v>
+      </c>
+      <c r="J114">
+        <v>4842934.856304669</v>
+      </c>
+      <c r="K114">
+        <v>3985966.562008522</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>27</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116577.68204145</v>
+      </c>
+      <c r="G115">
+        <v>4841131.144266539</v>
+      </c>
+      <c r="H115">
+        <v>3985228.229037783</v>
+      </c>
+      <c r="I115">
+        <v>1115083.217887133</v>
+      </c>
+      <c r="J115">
+        <v>4842886.204681361</v>
+      </c>
+      <c r="K115">
+        <v>3986179.466073346</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>27</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116577.68204145</v>
+      </c>
+      <c r="G116">
+        <v>4841147.657108198</v>
+      </c>
+      <c r="H116">
+        <v>3985228.229037783</v>
+      </c>
+      <c r="I116">
+        <v>1115118.329306324</v>
+      </c>
+      <c r="J116">
+        <v>4842837.553058053</v>
+      </c>
+      <c r="K116">
+        <v>3986377.221474817</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>27</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116529.001513509</v>
+      </c>
+      <c r="G117">
+        <v>4841164.169949855</v>
+      </c>
+      <c r="H117">
+        <v>3985427.483439592</v>
+      </c>
+      <c r="I117">
+        <v>1115154.305311912</v>
+      </c>
+      <c r="J117">
+        <v>4842788.901434746</v>
+      </c>
+      <c r="K117">
+        <v>3986559.828212938</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>27</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116500.404145423</v>
+      </c>
+      <c r="G118">
+        <v>4841180.682791512</v>
+      </c>
+      <c r="H118">
+        <v>3985546.169551566</v>
+      </c>
+      <c r="I118">
+        <v>1115191.167193539</v>
+      </c>
+      <c r="J118">
+        <v>4842740.249811438</v>
+      </c>
+      <c r="K118">
+        <v>3986727.286287707</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>27</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116482.351388678</v>
+      </c>
+      <c r="G119">
+        <v>4841197.195633171</v>
+      </c>
+      <c r="H119">
+        <v>3985630.986494106</v>
+      </c>
+      <c r="I119">
+        <v>1115228.936765088</v>
+      </c>
+      <c r="J119">
+        <v>4842691.59818813</v>
+      </c>
+      <c r="K119">
+        <v>3986879.595699125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>27</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116469.761469405</v>
+      </c>
+      <c r="G120">
+        <v>4841213.708474828</v>
+      </c>
+      <c r="H120">
+        <v>3985697.033401821</v>
+      </c>
+      <c r="I120">
+        <v>1115267.63637759</v>
+      </c>
+      <c r="J120">
+        <v>4842642.946564822</v>
+      </c>
+      <c r="K120">
+        <v>3987016.756447191</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>27</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116460.369012601</v>
+      </c>
+      <c r="G121">
+        <v>4841230.221316487</v>
+      </c>
+      <c r="H121">
+        <v>3985751.130942306</v>
+      </c>
+      <c r="I121">
+        <v>1115307.288932447</v>
+      </c>
+      <c r="J121">
+        <v>4842594.294941515</v>
+      </c>
+      <c r="K121">
+        <v>3987138.768531906</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>27</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116453.025422999</v>
+      </c>
+      <c r="G122">
+        <v>4841246.734158143</v>
+      </c>
+      <c r="H122">
+        <v>3985796.947610167</v>
+      </c>
+      <c r="I122">
+        <v>1115347.917894988</v>
+      </c>
+      <c r="J122">
+        <v>4842545.643318206</v>
+      </c>
+      <c r="K122">
+        <v>3987245.63195327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>27</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116447.083924307</v>
+      </c>
+      <c r="G123">
+        <v>4841263.246999802</v>
+      </c>
+      <c r="H123">
+        <v>3985836.685225077</v>
+      </c>
+      <c r="I123">
+        <v>1115389.547308353</v>
+      </c>
+      <c r="J123">
+        <v>4842496.991694899</v>
+      </c>
+      <c r="K123">
+        <v>3987337.346711282</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>27</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116442.150363317</v>
+      </c>
+      <c r="G124">
+        <v>4841279.75984146</v>
+      </c>
+      <c r="H124">
+        <v>3985871.769606859</v>
+      </c>
+      <c r="I124">
+        <v>1115432.201807723</v>
+      </c>
+      <c r="J124">
+        <v>4842448.340071592</v>
+      </c>
+      <c r="K124">
+        <v>3987413.912805943</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>27</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116437.969541583</v>
+      </c>
+      <c r="G125">
+        <v>4841296.272683117</v>
+      </c>
+      <c r="H125">
+        <v>3985903.177188545</v>
+      </c>
+      <c r="I125">
+        <v>1115475.9066349</v>
+      </c>
+      <c r="J125">
+        <v>4842399.688448284</v>
+      </c>
+      <c r="K125">
+        <v>3987475.330237253</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>27</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116434.368171541</v>
+      </c>
+      <c r="G126">
+        <v>4841312.785524775</v>
+      </c>
+      <c r="H126">
+        <v>3985931.606038202</v>
+      </c>
+      <c r="I126">
+        <v>1115520.687653238</v>
+      </c>
+      <c r="J126">
+        <v>4842351.036824975</v>
+      </c>
+      <c r="K126">
+        <v>3987521.599005211</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>27</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116431.223989406</v>
+      </c>
+      <c r="G127">
+        <v>4841329.298366433</v>
+      </c>
+      <c r="H127">
+        <v>3985957.572546297</v>
+      </c>
+      <c r="I127">
+        <v>1115566.571362954</v>
+      </c>
+      <c r="J127">
+        <v>4842302.385201668</v>
+      </c>
+      <c r="K127">
+        <v>3987552.719109818</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>27</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116428.447973752</v>
+      </c>
+      <c r="G128">
+        <v>4841345.811208091</v>
+      </c>
+      <c r="H128">
+        <v>3985981.469467586</v>
+      </c>
+      <c r="I128">
+        <v>1115613.584916811</v>
+      </c>
+      <c r="J128">
+        <v>4842253.733578361</v>
+      </c>
+      <c r="K128">
+        <v>3987568.690551074</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>27</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116425.973580738</v>
+      </c>
+      <c r="G129">
+        <v>4841362.324049748</v>
+      </c>
+      <c r="H129">
+        <v>3986003.602488862</v>
+      </c>
+      <c r="I129">
+        <v>1115661.756136179</v>
+      </c>
+      <c r="J129">
+        <v>4842205.081955053</v>
+      </c>
+      <c r="K129">
+        <v>3987569.513328978</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>27</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116423.749947837</v>
+      </c>
+      <c r="G130">
+        <v>4841378.836891407</v>
+      </c>
+      <c r="H130">
+        <v>3986024.21420306</v>
+      </c>
+      <c r="I130">
+        <v>1115711.113527507</v>
+      </c>
+      <c r="J130">
+        <v>4842156.430331744</v>
+      </c>
+      <c r="K130">
+        <v>3987555.18744353</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>27</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116421.737447913</v>
+      </c>
+      <c r="G131">
+        <v>4841395.349733064</v>
+      </c>
+      <c r="H131">
+        <v>3986043.500360587</v>
+      </c>
+      <c r="I131">
+        <v>1115761.686299189</v>
+      </c>
+      <c r="J131">
+        <v>4842107.778708437</v>
+      </c>
+      <c r="K131">
+        <v>3987525.712894732</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>27</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116419.904690954</v>
+      </c>
+      <c r="G132">
+        <v>4841411.862574723</v>
+      </c>
+      <c r="H132">
+        <v>3986061.621203313</v>
+      </c>
+      <c r="I132">
+        <v>1115813.504378848</v>
+      </c>
+      <c r="J132">
+        <v>4842059.12708513</v>
+      </c>
+      <c r="K132">
+        <v>3987481.089682582</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>27</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116418.226448065</v>
+      </c>
+      <c r="G133">
+        <v>4841428.375416379</v>
+      </c>
+      <c r="H133">
+        <v>3986078.709565265</v>
+      </c>
+      <c r="I133">
+        <v>1115866.598431046</v>
+      </c>
+      <c r="J133">
+        <v>4842010.475461821</v>
+      </c>
+      <c r="K133">
+        <v>3987421.317807081</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>27</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116416.682180491</v>
+      </c>
+      <c r="G134">
+        <v>4841444.888258037</v>
+      </c>
+      <c r="H134">
+        <v>3986094.876787383</v>
+      </c>
+      <c r="I134">
+        <v>1115920.999875434</v>
+      </c>
+      <c r="J134">
+        <v>4841961.823838513</v>
+      </c>
+      <c r="K134">
+        <v>3987346.397268229</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>27</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116415.254975942</v>
+      </c>
+      <c r="G135">
+        <v>4841461.401099696</v>
+      </c>
+      <c r="H135">
+        <v>3986110.217118078</v>
+      </c>
+      <c r="I135">
+        <v>1115976.740905342</v>
+      </c>
+      <c r="J135">
+        <v>4841913.172215206</v>
+      </c>
+      <c r="K135">
+        <v>3987256.328066025</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>27</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116413.930765412</v>
+      </c>
+      <c r="G136">
+        <v>4841477.913941353</v>
+      </c>
+      <c r="H136">
+        <v>3986124.811042191</v>
+      </c>
+      <c r="I136">
+        <v>1116033.854506831</v>
+      </c>
+      <c r="J136">
+        <v>4841864.520591898</v>
+      </c>
+      <c r="K136">
+        <v>3987151.11020047</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>27</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116412.697737127</v>
+      </c>
+      <c r="G137">
+        <v>4841494.426783011</v>
+      </c>
+      <c r="H137">
+        <v>3986138.727837</v>
+      </c>
+      <c r="I137">
+        <v>1116092.374478212</v>
+      </c>
+      <c r="J137">
+        <v>4841815.86896859</v>
+      </c>
+      <c r="K137">
+        <v>3987030.743671564</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>27</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116411.545891581</v>
+      </c>
+      <c r="G138">
+        <v>4841510.939624669</v>
+      </c>
+      <c r="H138">
+        <v>3986152.027561123</v>
+      </c>
+      <c r="I138">
+        <v>1116152.335450052</v>
+      </c>
+      <c r="J138">
+        <v>4841767.217345282</v>
+      </c>
+      <c r="K138">
+        <v>3986895.228479306</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>27</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116410.466699236</v>
+      </c>
+      <c r="G139">
+        <v>4841527.452466327</v>
+      </c>
+      <c r="H139">
+        <v>3986164.762620908</v>
+      </c>
+      <c r="I139">
+        <v>1116213.77290566</v>
+      </c>
+      <c r="J139">
+        <v>4841718.565721975</v>
+      </c>
+      <c r="K139">
+        <v>3986744.564623697</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>27</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116409.452834012</v>
+      </c>
+      <c r="G140">
+        <v>4841543.965307985</v>
+      </c>
+      <c r="H140">
+        <v>3986176.979017645</v>
+      </c>
+      <c r="I140">
+        <v>1116276.72320209</v>
+      </c>
+      <c r="J140">
+        <v>4841669.914098667</v>
+      </c>
+      <c r="K140">
+        <v>3986578.752104736</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>27</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116408.497963524</v>
+      </c>
+      <c r="G141">
+        <v>4841560.478149641</v>
+      </c>
+      <c r="H141">
+        <v>3986188.717350595</v>
+      </c>
+      <c r="I141">
+        <v>1116341.223591658</v>
+      </c>
+      <c r="J141">
+        <v>4841621.262475358</v>
+      </c>
+      <c r="K141">
+        <v>3986397.790922424</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>27</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116407.596582329</v>
+      </c>
+      <c r="G142">
+        <v>4841576.9909913</v>
+      </c>
+      <c r="H142">
+        <v>3986200.013631054</v>
+      </c>
+      <c r="I142">
+        <v>1116407.312243978</v>
+      </c>
+      <c r="J142">
+        <v>4841572.610852052</v>
+      </c>
+      <c r="K142">
+        <v>3986201.681076761</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>27</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116406.743878121</v>
+      </c>
+      <c r="G143">
+        <v>4841593.503832958</v>
+      </c>
+      <c r="H143">
+        <v>3986210.899948622</v>
+      </c>
+      <c r="I143">
+        <v>1116475.028268562</v>
+      </c>
+      <c r="J143">
+        <v>4841523.959228744</v>
+      </c>
+      <c r="K143">
+        <v>3985990.422567747</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>27</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116405.935623467</v>
+      </c>
+      <c r="G144">
+        <v>4841610.016674615</v>
+      </c>
+      <c r="H144">
+        <v>3986221.405020751</v>
+      </c>
+      <c r="I144">
+        <v>1116544.411737954</v>
+      </c>
+      <c r="J144">
+        <v>4841475.307605436</v>
+      </c>
+      <c r="K144">
+        <v>3985764.015395381</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>27</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116405.168087513</v>
+      </c>
+      <c r="G145">
+        <v>4841626.529516273</v>
+      </c>
+      <c r="H145">
+        <v>3986231.554649285</v>
+      </c>
+      <c r="I145">
+        <v>1116615.503711448</v>
+      </c>
+      <c r="J145">
+        <v>4841426.655982127</v>
+      </c>
+      <c r="K145">
+        <v>3985522.459559664</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>27</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116404.437963438</v>
+      </c>
+      <c r="G146">
+        <v>4841643.042357932</v>
+      </c>
+      <c r="H146">
+        <v>3986241.372102258</v>
+      </c>
+      <c r="I146">
+        <v>1116688.346259386</v>
+      </c>
+      <c r="J146">
+        <v>4841378.004358821</v>
+      </c>
+      <c r="K146">
+        <v>3985265.755060595</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>27</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116403.742308464</v>
+      </c>
+      <c r="G147">
+        <v>4841659.555199589</v>
+      </c>
+      <c r="H147">
+        <v>3986250.878435173</v>
+      </c>
+      <c r="I147">
+        <v>1116762.982488053</v>
+      </c>
+      <c r="J147">
+        <v>4841329.352735513</v>
+      </c>
+      <c r="K147">
+        <v>3984993.901898175</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>27</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116403.078493906</v>
+      </c>
+      <c r="G148">
+        <v>4841676.068041246</v>
+      </c>
+      <c r="H148">
+        <v>3986260.092762926</v>
+      </c>
+      <c r="I148">
+        <v>1116839.456565187</v>
+      </c>
+      <c r="J148">
+        <v>4841280.701112205</v>
+      </c>
+      <c r="K148">
+        <v>3984706.900072404</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>27</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116402.444163362</v>
+      </c>
+      <c r="G149">
+        <v>4841692.580882905</v>
+      </c>
+      <c r="H149">
+        <v>3986269.032491187</v>
+      </c>
+      <c r="I149">
+        <v>1116917.813746115</v>
+      </c>
+      <c r="J149">
+        <v>4841232.049488897</v>
+      </c>
+      <c r="K149">
+        <v>3984404.749583282</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>27</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116401.837197498</v>
+      </c>
+      <c r="G150">
+        <v>4841709.093724562</v>
+      </c>
+      <c r="H150">
+        <v>3986277.713514301</v>
+      </c>
+      <c r="I150">
+        <v>1116998.100400537</v>
+      </c>
+      <c r="J150">
+        <v>4841183.397865589</v>
+      </c>
+      <c r="K150">
+        <v>3984087.450430808</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>27</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116401.255684248</v>
+      </c>
+      <c r="G151">
+        <v>4841725.606566221</v>
+      </c>
+      <c r="H151">
+        <v>3986286.150385347</v>
+      </c>
+      <c r="I151">
+        <v>1117080.364039961</v>
+      </c>
+      <c r="J151">
+        <v>4841134.746242282</v>
+      </c>
+      <c r="K151">
+        <v>3983755.002614983</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>27</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116400.697893465</v>
+      </c>
+      <c r="G152">
+        <v>4841742.119407877</v>
+      </c>
+      <c r="H152">
+        <v>3986294.356462931</v>
+      </c>
+      <c r="I152">
+        <v>1117164.653345824</v>
+      </c>
+      <c r="J152">
+        <v>4841086.094618973</v>
+      </c>
+      <c r="K152">
+        <v>3983407.406135806</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>27</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116400.162255263</v>
+      </c>
+      <c r="G153">
+        <v>4841758.632249536</v>
+      </c>
+      <c r="H153">
+        <v>3986302.344038432</v>
+      </c>
+      <c r="I153">
+        <v>1117251.0181983</v>
+      </c>
+      <c r="J153">
+        <v>4841037.442995666</v>
+      </c>
+      <c r="K153">
+        <v>3983044.660993278</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>27</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116399.647341423</v>
+      </c>
+      <c r="G154">
+        <v>4841775.145091194</v>
+      </c>
+      <c r="H154">
+        <v>3986310.124446736</v>
+      </c>
+      <c r="I154">
+        <v>1117339.509705814</v>
+      </c>
+      <c r="J154">
+        <v>4840988.791372358</v>
+      </c>
+      <c r="K154">
+        <v>3982666.767187399</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>27</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116399.151849376</v>
+      </c>
+      <c r="G155">
+        <v>4841791.657932851</v>
+      </c>
+      <c r="H155">
+        <v>3986317.708162983</v>
+      </c>
+      <c r="I155">
+        <v>1117430.18023529</v>
+      </c>
+      <c r="J155">
+        <v>4840940.13974905</v>
+      </c>
+      <c r="K155">
+        <v>3982273.724718168</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>27</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116398.674588338</v>
+      </c>
+      <c r="G156">
+        <v>4841808.170774509</v>
+      </c>
+      <c r="H156">
+        <v>3986325.104887372</v>
+      </c>
+      <c r="I156">
+        <v>1117523.083443139</v>
+      </c>
+      <c r="J156">
+        <v>4840891.488125742</v>
+      </c>
+      <c r="K156">
+        <v>3981865.533585587</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>27</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116398.214467277</v>
+      </c>
+      <c r="G157">
+        <v>4841824.683616167</v>
+      </c>
+      <c r="H157">
+        <v>3986332.323619761</v>
+      </c>
+      <c r="I157">
+        <v>1117618.274307011</v>
+      </c>
+      <c r="J157">
+        <v>4840842.836502435</v>
+      </c>
+      <c r="K157">
+        <v>3981442.193789653</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>27</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116397.770484418</v>
+      </c>
+      <c r="G158">
+        <v>4841841.196457825</v>
+      </c>
+      <c r="H158">
+        <v>3986339.372725509</v>
+      </c>
+      <c r="I158">
+        <v>1117715.809158333</v>
+      </c>
+      <c r="J158">
+        <v>4840794.184879127</v>
+      </c>
+      <c r="K158">
+        <v>3981003.705330369</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>27</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116397.341718072</v>
+      </c>
+      <c r="G159">
+        <v>4841857.709299482</v>
+      </c>
+      <c r="H159">
+        <v>3986346.259993751</v>
+      </c>
+      <c r="I159">
+        <v>1117815.745715638</v>
+      </c>
+      <c r="J159">
+        <v>4840745.533255819</v>
+      </c>
+      <c r="K159">
+        <v>3980550.068207733</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>27</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116396.927318589</v>
+      </c>
+      <c r="G160">
+        <v>4841874.222141141</v>
+      </c>
+      <c r="H160">
+        <v>3986352.992689134</v>
+      </c>
+      <c r="I160">
+        <v>1117918.143118726</v>
+      </c>
+      <c r="J160">
+        <v>4840696.881632511</v>
+      </c>
+      <c r="K160">
+        <v>3980081.282421745</v>
       </c>
     </row>
   </sheetData>
